--- a/test/testData/Worldpay_TestData.xlsx
+++ b/test/testData/Worldpay_TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cbackup\WorldPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanraich\Documents\New_TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FA6B06-D967-445B-9D75-A58385B42B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{7D9D4C48-17F7-4D81-B2DF-64773641F2A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="CC_DATA" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="APMs_DATA" sheetId="4" r:id="rId3"/>
     <sheet name="EE_DATA" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -620,9 +619,6 @@
     <t>Klarna</t>
   </si>
   <si>
-    <t>Austria, Finland, Germany, Netherlands, Norway, Sweden, United Kingdom</t>
-  </si>
-  <si>
     <t>US,ALL</t>
   </si>
   <si>
@@ -693,12 +689,15 @@
   </si>
   <si>
     <t>EXEMPTION ENGINE TEST DATA</t>
+  </si>
+  <si>
+    <t>Austria, Finland, Germany, Netherlands, Norway, Sweden, United Kingdom, US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1095,6 +1094,75 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,80 +1170,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,15 +1223,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,36 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA61646-0620-47A9-99F2-C9DCB6B0372B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1565,26 +1564,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="27"/>
+      <c r="F4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1593,13 +1592,13 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1610,13 +1609,13 @@
       <c r="C6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1627,13 +1626,13 @@
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1644,13 +1643,13 @@
       <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1661,13 +1660,13 @@
       <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1678,13 +1677,13 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="12">
         <v>4</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1695,13 +1694,13 @@
       <c r="C11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="12">
         <v>5</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1712,13 +1711,13 @@
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="12">
         <v>8</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1729,13 +1728,13 @@
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="12">
         <v>13</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1746,13 +1745,13 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="12">
         <v>15</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1763,13 +1762,13 @@
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="12">
         <v>17</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="12" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1780,13 +1779,13 @@
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="12">
         <v>28</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1797,13 +1796,13 @@
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="12">
         <v>29</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1814,13 +1813,13 @@
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="12">
         <v>33</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1831,325 +1830,326 @@
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="12">
         <v>34</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="12">
         <v>38</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="12">
         <v>41</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="12">
         <v>43</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="F23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="12">
         <v>51</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="F24" s="21" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="F24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="12">
         <v>55</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="12">
         <v>56</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="12">
         <v>57</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>111</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="12">
         <v>62</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>222</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="12">
         <v>63</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>333</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="12">
         <v>75</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>444</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="12">
         <v>76</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>555</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="12">
         <v>85</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>1111</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>2222</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>3333</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>4444</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>5555</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>6666</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B23:D23"/>
@@ -2157,7 +2157,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2165,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4E7093-A677-47D1-BC77-B751BD3A795A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2181,16 +2180,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2201,378 +2200,373 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="10" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="E27:E28"/>
@@ -2580,261 +2574,268 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F9C90-4FFE-4772-A7CF-CD3C90F7B6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="21.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="55" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="21.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2846,187 +2847,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2CB40C-937D-479A-A116-265BC9311C72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19"/>
-    <col min="2" max="2" width="51.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="33" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="51.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="33" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="C6" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="D14" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+    </row>
+    <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-    </row>
-    <row r="12" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+    </row>
+    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D18" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="26" t="s">
+    </row>
+    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+    </row>
+    <row r="23" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/test/testData/Worldpay_TestData.xlsx
+++ b/test/testData/Worldpay_TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanraich\Documents\New_TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WPG_Automation_Release\sapient-project-worldpay-sfcc\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
   <si>
     <t>Test card numbers</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>Klarna</t>
-  </si>
-  <si>
     <t>US,ALL</t>
   </si>
   <si>
@@ -637,68 +634,23 @@
     <t>APMs TEST DATA</t>
   </si>
   <si>
-    <t>Successful Frictionless Authentication</t>
-  </si>
-  <si>
-    <t>Magic Value</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Response Data</t>
-  </si>
-  <si>
-    <t>EE_3DS.HONOURED_ISSUER_HONOURED.AUTHORISED</t>
-  </si>
-  <si>
-    <t>lastEvent = AUTHORISED</t>
-  </si>
-  <si>
-    <t>result = HONOURED</t>
-  </si>
-  <si>
-    <t>reason = ISSUER_HONOURED</t>
-  </si>
-  <si>
-    <t>3SD2 Frictionless Authentication Unavailable</t>
-  </si>
-  <si>
-    <t>EE_3DS_SCA.REJECTED_HIGH_RISK.AUTHORISED</t>
-  </si>
-  <si>
-    <t>Challenge required</t>
-  </si>
-  <si>
-    <t>result = REJECTED</t>
-  </si>
-  <si>
-    <t>reason = HIGH_RISK</t>
-  </si>
-  <si>
-    <t>EE_3DS_SCA.REJECTED_ISSUER_REJECTED.AUTHORISED</t>
-  </si>
-  <si>
-    <t>reason = ISSUER_REJECTED</t>
-  </si>
-  <si>
-    <t>EE_3DS_SCA.REJECTED_INVALID.AUTHORISED</t>
-  </si>
-  <si>
-    <t>reason = INVALID</t>
-  </si>
-  <si>
     <t>EXEMPTION ENGINE TEST DATA</t>
   </si>
   <si>
-    <t>Austria, Finland, Germany, Netherlands, Norway, Sweden, United Kingdom, US</t>
+    <t>https://developer.worldpay.com/docs/wpg/scaexemptionservices/exemptionengine | Note: Please refer Authorisation Flow Magic values only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klarna </t>
+  </si>
+  <si>
+    <t>https://developer.worldpay.com/docs/wpg/apms/klarnakp2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +707,21 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -770,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -799,210 +766,6 @@
       <top style="thin">
         <color theme="5"/>
       </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="5"/>
       </bottom>
@@ -1047,40 +810,47 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
       <bottom style="medium">
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
       <bottom style="medium">
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
       <bottom style="medium">
-        <color theme="5"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1124,40 +894,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,15 +915,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,47 +930,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1564,26 +1275,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="20"/>
+      <c r="F3" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="F4" s="31" t="s">
+      <c r="C4" s="19"/>
+      <c r="F4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1874,11 +1585,11 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="F23" s="12" t="s">
         <v>124</v>
       </c>
@@ -1890,11 +1601,11 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="F24" s="12" t="s">
         <v>126</v>
       </c>
@@ -2046,18 +1757,18 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
@@ -2149,14 +1860,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2167,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2180,16 +1891,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -2272,66 +1983,66 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -2390,26 +2101,26 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
@@ -2589,7 +2300,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2602,11 +2313,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2636,7 +2347,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,7 +2416,7 @@
         <v>169</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2758,7 +2469,7 @@
         <v>180</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -2788,7 +2499,7 @@
         <v>169</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2829,222 +2540,63 @@
     </row>
     <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>218</v>
+        <v>201</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D23"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="51.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="33" style="11" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="16" t="s">
-        <v>216</v>
-      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
